--- a/wikipedia_validation_sheets/Cerebral salt-wasting syndrome DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Cerebral salt-wasting syndrome DISNET VALIDATION.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ED43228C-5162-7741-98B0-7A867FE782C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BB39A-7ADC-B148-B166-0C8DAC1E8317}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="20340" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
   <si>
     <t>Cerebral salt-wasting syndrome</t>
   </si>
@@ -228,12 +237,6 @@
     <t>low blood sodium concentration</t>
   </si>
   <si>
-    <t>ANXIETY</t>
-  </si>
-  <si>
-    <t>heart rate or slowed heart rate</t>
-  </si>
-  <si>
     <t>extreme salt cravings</t>
   </si>
   <si>
@@ -256,6 +259,51 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>increased, heart, rate</t>
+  </si>
+  <si>
+    <t>Tachycardia</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>slow, heart, rate</t>
+  </si>
+  <si>
+    <t>Bradycardia</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>Mental concentration</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>feelings</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>dysfunction</t>
+  </si>
+  <si>
+    <t>Functional disorder</t>
   </si>
 </sst>
 </file>
@@ -317,7 +365,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,18 +416,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -548,21 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -578,36 +605,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,8 +684,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,19 +727,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -755,16 +748,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,13 +1066,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A383FF25-3BBA-F74C-9394-F961492C76F1}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
@@ -1092,58 +1085,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1151,983 +1144,1160 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="36"/>
+      <c r="E4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="36"/>
+      <c r="E5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="36"/>
+      <c r="E6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="36"/>
+      <c r="E7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="36"/>
+      <c r="E8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="36"/>
+      <c r="E9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="36"/>
+      <c r="E10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="36"/>
+      <c r="E11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="36"/>
+      <c r="E12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="36"/>
+      <c r="E13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="36"/>
+      <c r="E14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="36"/>
+      <c r="E15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="36"/>
+      <c r="E16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="36"/>
+      <c r="E17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="36"/>
+      <c r="E18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="36"/>
+      <c r="E19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="36"/>
+      <c r="E20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="36"/>
+      <c r="E21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="36"/>
+      <c r="E22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="36"/>
+      <c r="E23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="36"/>
+      <c r="E24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="36"/>
+      <c r="E25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="36"/>
+      <c r="E26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="36"/>
+      <c r="E27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="10" t="b">
+      <c r="E28" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="36"/>
+      <c r="F28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="10" t="b">
+      <c r="E29" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="36"/>
+      <c r="F29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="10" t="b">
+      <c r="E30" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="36"/>
+      <c r="F30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="10" t="b">
+      <c r="E31" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="20" t="b">
+      <c r="E32" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="F32" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="C33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{3D366746-D415-524C-9E4B-F33AA1B732D5}"/>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
